--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,28 +76,25 @@
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -112,9 +103,15 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -133,127 +130,163 @@
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>store</t>
@@ -614,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,7 +787,7 @@
         <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -783,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -833,38 +866,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L6">
-        <v>97</v>
-      </c>
-      <c r="M6">
-        <v>97</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -875,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6176470588235294</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5945945945945946</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,31 +984,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L8">
+        <v>97</v>
+      </c>
+      <c r="M8">
+        <v>97</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,16 +1037,16 @@
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5789473684210527</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,16 +1087,16 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5652173913043478</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5600000000000001</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4391534391534391</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,7 +1316,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4313725490196079</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C15">
         <v>22</v>
@@ -1301,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7708333333333334</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4011627906976744</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C16">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.35</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.7625</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3154362416107382</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3090909090909091</v>
+        <v>0.25</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1583,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2933333333333333</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>73</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2857142857142857</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,31 +1684,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
+        <v>45</v>
+      </c>
+      <c r="M22">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>18</v>
-      </c>
-      <c r="M22">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2711864406779661</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.6507936507936508</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2363636363636364</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,37 +1816,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.126984126984127</v>
+        <v>0.01915584415584416</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>220</v>
+        <v>3021</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,37 +1866,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08310991957104558</v>
+        <v>0.01559792027729636</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>342</v>
+        <v>1136</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.6150627615062761</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,37 +1916,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01715210355987055</v>
+        <v>0.01272984441301273</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="F27">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3037</v>
+        <v>2094</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.6063829787234043</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L27">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="M27">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,87 +1966,63 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01039697542533081</v>
+        <v>0.007974481658692184</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E28">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="F28">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2094</v>
+        <v>3110</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.65</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28">
-        <v>0.6054421768707483</v>
-      </c>
-      <c r="L28">
-        <v>178</v>
-      </c>
-      <c r="M28">
-        <v>179</v>
-      </c>
-      <c r="N28">
-        <v>0.99</v>
-      </c>
-      <c r="O28">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.007310870947234584</v>
-      </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-      <c r="D29">
-        <v>78</v>
-      </c>
-      <c r="E29">
-        <v>0.71</v>
-      </c>
-      <c r="F29">
-        <v>0.29</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3123</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K29">
-        <v>0.55</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2025,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2051,21 +2060,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2077,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2103,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2129,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2155,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.4814814814814815</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2181,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2207,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.3974358974358974</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2233,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.3835616438356164</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2259,73 +2268,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.3658536585365854</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.3529411764705883</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>18</v>
-      </c>
-      <c r="M40">
-        <v>18</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.1048387096774194</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2337,21 +2346,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.06228373702422145</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2363,15 +2372,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>271</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.05844155844155844</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
         <v>18</v>
@@ -2389,73 +2398,73 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>290</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.04106280193236715</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>397</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.02472952086553323</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N45">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>631</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.01886792452830189</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2467,33 +2476,33 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>884</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.01730648206419132</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="N47">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2501,77 +2510,389 @@
         <v>80</v>
       </c>
       <c r="K48">
-        <v>0.01455767077267637</v>
+        <v>0.25</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>880</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.01272984441301273</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N49">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="O49">
-        <v>0.45</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2094</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52">
+        <v>0.0979020979020979</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53">
+        <v>0.0755813953488372</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55">
+        <v>0.07027027027027027</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>0.04844290657439446</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L57">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>22</v>
+      </c>
+      <c r="N57">
+        <v>0.95</v>
+      </c>
+      <c r="O57">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58">
+        <v>0.0207808564231738</v>
+      </c>
+      <c r="L58">
+        <v>66</v>
+      </c>
+      <c r="M58">
+        <v>91</v>
+      </c>
+      <c r="N58">
+        <v>0.73</v>
+      </c>
+      <c r="O58">
+        <v>0.27</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K59">
+        <v>0.02024922118380062</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>21</v>
+      </c>
+      <c r="N59">
+        <v>0.62</v>
+      </c>
+      <c r="O59">
+        <v>0.38</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60">
+        <v>0.01903695408734602</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>18</v>
+      </c>
+      <c r="N60">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O60">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K50">
-        <v>0.005566470203012442</v>
-      </c>
-      <c r="L50">
-        <v>17</v>
-      </c>
-      <c r="M50">
-        <v>70</v>
-      </c>
-      <c r="N50">
-        <v>0.24</v>
-      </c>
-      <c r="O50">
-        <v>0.76</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>3037</v>
+      <c r="K61">
+        <v>0.01039697542533081</v>
+      </c>
+      <c r="L61">
+        <v>22</v>
+      </c>
+      <c r="M61">
+        <v>49</v>
+      </c>
+      <c r="N61">
+        <v>0.45</v>
+      </c>
+      <c r="O61">
+        <v>0.55</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>0.008858267716535433</v>
+      </c>
+      <c r="L62">
+        <v>27</v>
+      </c>
+      <c r="M62">
+        <v>86</v>
+      </c>
+      <c r="N62">
+        <v>0.31</v>
+      </c>
+      <c r="O62">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3021</v>
       </c>
     </row>
   </sheetData>
